--- a/src/main/LightPatterns.xlsx
+++ b/src/main/LightPatterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nate\java_tools\Workspaces\SchoolWorkspace\ChristmasTreePi\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B5E56-D96C-4CA4-ACBC-C336BC8928CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8D07B-9E05-4CAD-9B5D-BD688104D132}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{A15E4088-1328-44C0-9881-D69A13DB1AD9}"/>
   </bookViews>
@@ -309,9 +309,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,21 +647,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -992,21 +992,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="5" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1397,21 +1397,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1675,21 +1675,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="5" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1921,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7744E465-51CF-4402-ACE1-B294179E562F}">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -2487,7 +2487,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">

--- a/src/main/LightPatterns.xlsx
+++ b/src/main/LightPatterns.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nate\java_tools\Workspaces\SchoolWorkspace\ChristmasTreePi\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D35F306-E968-4650-90C8-35D323F0F1B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FAB37A-6483-4315-ADAD-C96EF80C3817}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{A15E4088-1328-44C0-9881-D69A13DB1AD9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{A15E4088-1328-44C0-9881-D69A13DB1AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Chase" sheetId="1" r:id="rId1"/>
     <sheet name="Miscellaneous" sheetId="5" r:id="rId2"/>
     <sheet name="JingleBells" sheetId="3" r:id="rId3"/>
-    <sheet name="Sample" sheetId="6" r:id="rId4"/>
+    <sheet name="WishYouMerry" sheetId="6" r:id="rId4"/>
+    <sheet name="Sample" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JingleBells!$A$3:$E$309</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="59">
   <si>
     <t>CHASE DOWN FULL</t>
   </si>
@@ -307,12 +308,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,21 +649,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -993,21 +994,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="8" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1398,21 +1399,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -1643,21 +1644,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="8" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1893,17 +1894,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1920,8 +1921,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>900</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1934,8 +1935,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>1408</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1944,13 +1945,13 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
-        <f>A3-A2</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E12" si="0">A3-A2</f>
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>1952</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1959,13 +1960,13 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11">
-        <f>A4-A3</f>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>2552</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1974,13 +1975,13 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11">
-        <f>A5-A4</f>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>3246</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1989,13 +1990,13 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11">
-        <f>A6-A5</f>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
         <v>694</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>3896</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2004,13 +2005,13 @@
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
-        <f>A7-A6</f>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>4597</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2019,13 +2020,13 @@
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
-        <f>A8-A7</f>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>5307</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2037,13 +2038,13 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11">
-        <f>A9-A8</f>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>5955</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2055,13 +2056,13 @@
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11">
-        <f>A10-A9</f>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>6456</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2070,13 +2071,13 @@
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11">
-        <f>A11-A10</f>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>6984</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2085,13 +2086,13 @@
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11">
-        <f>A12-A11</f>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <f>A12+170</f>
         <v>7154</v>
       </c>
@@ -2099,8 +2100,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>7349</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2109,13 +2110,13 @@
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <f>A14-A12</f>
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <f>A14+170</f>
         <v>7519</v>
       </c>
@@ -2124,8 +2125,8 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>7677</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2134,13 +2135,13 @@
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <f>A16-A14</f>
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <f>A16+170</f>
         <v>7847</v>
       </c>
@@ -2149,8 +2150,8 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>8008</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2159,13 +2160,13 @@
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <f>A18-A16</f>
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>8512</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2177,13 +2178,13 @@
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="11">
-        <f>A19-A18</f>
+      <c r="E19" s="9">
+        <f t="shared" ref="E19:E25" si="1">A19-A18</f>
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>9021</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2195,13 +2196,13 @@
       <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="11">
-        <f>A20-A19</f>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>9464</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2213,13 +2214,13 @@
       <c r="D21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="11">
-        <f>A21-A20</f>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>9744</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2231,13 +2232,13 @@
       <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="12">
-        <f>A22-A21</f>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>10176</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2249,13 +2250,13 @@
       <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="11">
-        <f>A23-A22</f>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>10718</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2267,13 +2268,13 @@
       <c r="D24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="11">
-        <f>A24-A23</f>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>11247</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2282,13 +2283,13 @@
       <c r="D25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="11">
-        <f>A25-A24</f>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <f>A25+170</f>
         <v>11417</v>
       </c>
@@ -2296,8 +2297,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>11536</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2306,23 +2307,23 @@
       <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <f>A27-A25</f>
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <f>A27+170</f>
         <v>11706</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>11856</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2331,23 +2332,23 @@
       <c r="D29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <f>A29-A27</f>
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <f>A29+170</f>
         <v>12026</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>12198</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2359,13 +2360,13 @@
       <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <f>A31-A29</f>
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>12747</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2377,13 +2378,13 @@
       <c r="D32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="11">
-        <f>A32-A31</f>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:E62" si="2">A32-A31</f>
         <v>549</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>13437</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2395,13 +2396,13 @@
       <c r="D33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="11">
-        <f>A33-A32</f>
+      <c r="E33" s="9">
+        <f t="shared" si="2"/>
         <v>690</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>13776</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2413,13 +2414,13 @@
       <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="12">
-        <f>A34-A33</f>
+      <c r="E34" s="10">
+        <f t="shared" si="2"/>
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>14149</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2428,13 +2429,13 @@
       <c r="D35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="12">
-        <f>A35-A34</f>
+      <c r="E35" s="10">
+        <f t="shared" si="2"/>
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>14797</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2443,31 +2444,31 @@
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="11">
-        <f>A36-A35</f>
+      <c r="E36" s="9">
+        <f t="shared" si="2"/>
         <v>648</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>15503</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="11">
-        <f>A37-A36</f>
+      <c r="E37" s="9">
+        <f t="shared" si="2"/>
         <v>706</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>16158</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -2479,13 +2480,13 @@
       <c r="D38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="11">
-        <f>A38-A37</f>
+      <c r="E38" s="9">
+        <f t="shared" si="2"/>
         <v>655</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>16815</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2497,13 +2498,13 @@
       <c r="D39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="11">
-        <f>A39-A38</f>
+      <c r="E39" s="9">
+        <f t="shared" si="2"/>
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>17467</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -2515,13 +2516,13 @@
       <c r="D40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="11">
-        <f>A40-A39</f>
+      <c r="E40" s="9">
+        <f t="shared" si="2"/>
         <v>652</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>18108</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -2533,13 +2534,13 @@
       <c r="D41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="11">
-        <f>A41-A40</f>
+      <c r="E41" s="9">
+        <f t="shared" si="2"/>
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>18743</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2551,13 +2552,13 @@
       <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="11">
-        <f>A42-A41</f>
+      <c r="E42" s="9">
+        <f t="shared" si="2"/>
         <v>635</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>19398</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -2569,13 +2570,13 @@
       <c r="D43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="11">
-        <f>A43-A42</f>
+      <c r="E43" s="9">
+        <f t="shared" si="2"/>
         <v>655</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>19584</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2587,13 +2588,13 @@
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="12">
-        <f>A44-A43</f>
+      <c r="E44" s="10">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
         <v>19736</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2605,13 +2606,13 @@
       <c r="D45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="12">
-        <f>A45-A44</f>
+      <c r="E45" s="10">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>19904</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2623,13 +2624,13 @@
       <c r="D46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="12">
-        <f>A46-A45</f>
+      <c r="E46" s="10">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>20045</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2641,13 +2642,13 @@
       <c r="D47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="12">
-        <f>A47-A46</f>
+      <c r="E47" s="10">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>20184</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2659,13 +2660,13 @@
       <c r="D48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="12">
-        <f>A48-A47</f>
+      <c r="E48" s="10">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>20319</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -2677,13 +2678,13 @@
       <c r="D49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="12">
-        <f>A49-A48</f>
+      <c r="E49" s="10">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>20528</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -2695,13 +2696,13 @@
       <c r="D50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="12">
-        <f>A50-A49</f>
+      <c r="E50" s="10">
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>20758</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2713,13 +2714,13 @@
       <c r="D51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="12">
-        <f>A51-A50</f>
+      <c r="E51" s="10">
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
         <v>21406</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2731,13 +2732,13 @@
       <c r="D52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="11">
-        <f>A52-A51</f>
+      <c r="E52" s="9">
+        <f t="shared" si="2"/>
         <v>648</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
         <v>22077</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -2749,13 +2750,13 @@
       <c r="D53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="11">
-        <f>A53-A52</f>
+      <c r="E53" s="9">
+        <f t="shared" si="2"/>
         <v>671</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="11">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
         <v>22664</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -2767,13 +2768,13 @@
       <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="11">
-        <f>A54-A53</f>
+      <c r="E54" s="9">
+        <f t="shared" si="2"/>
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
         <v>23349</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2785,13 +2786,13 @@
       <c r="D55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="11">
-        <f>A55-A54</f>
+      <c r="E55" s="9">
+        <f t="shared" si="2"/>
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
         <v>24016</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2803,13 +2804,13 @@
       <c r="D56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="11">
-        <f>A56-A55</f>
+      <c r="E56" s="9">
+        <f t="shared" si="2"/>
         <v>667</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
         <v>24678</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2821,13 +2822,13 @@
       <c r="D57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="11">
-        <f>A57-A56</f>
+      <c r="E57" s="9">
+        <f t="shared" si="2"/>
         <v>662</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>25399</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2839,13 +2840,13 @@
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="11">
-        <f>A58-A57</f>
+      <c r="E58" s="9">
+        <f t="shared" si="2"/>
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
         <v>26106</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -2857,13 +2858,13 @@
       <c r="D59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="11">
-        <f>A59-A58</f>
+      <c r="E59" s="9">
+        <f t="shared" si="2"/>
         <v>707</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
         <v>26583</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -2875,13 +2876,13 @@
       <c r="D60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="11">
-        <f>A60-A59</f>
+      <c r="E60" s="9">
+        <f t="shared" si="2"/>
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>27078</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -2893,13 +2894,13 @@
       <c r="D61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="11">
-        <f>A61-A60</f>
+      <c r="E61" s="9">
+        <f t="shared" si="2"/>
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="11">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>27429</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2911,23 +2912,23 @@
       <c r="D62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="11">
-        <f>A62-A61</f>
+      <c r="E62" s="9">
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <f>A62+170</f>
         <v>27599</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
         <v>27735</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2936,23 +2937,23 @@
       <c r="D64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="10">
         <f>A64-A62</f>
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
         <f>A64+170</f>
         <v>27905</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
         <v>28079</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2961,13 +2962,13 @@
       <c r="D66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="10">
         <f>A66-A64</f>
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
         <v>28656</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -2979,13 +2980,13 @@
       <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="9">
         <f>A67-A66</f>
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>29335</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -2994,23 +2995,23 @@
       <c r="D68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="9">
         <f>A68-A67</f>
         <v>679</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
         <f>A68+170</f>
         <v>29505</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="11">
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>29686</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -3019,23 +3020,23 @@
       <c r="D70" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="10">
         <f>A70-A68</f>
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="11">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
         <f>A70+170</f>
         <v>29856</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="12"/>
-    </row>
-    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="11">
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
         <v>29997</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -3044,23 +3045,23 @@
       <c r="D72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="10">
         <f>A72-A70</f>
         <v>311</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="11">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
         <f>A72+170</f>
         <v>30167</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
         <v>30336</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -3072,13 +3073,13 @@
       <c r="D74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="10">
         <f>A74-A72</f>
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>30885</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -3090,13 +3091,13 @@
       <c r="D75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="9">
         <f>A75-A74</f>
         <v>549</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
         <v>31415</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -3108,23 +3109,23 @@
       <c r="D76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="9">
         <f>A76-A75</f>
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
         <f>A76+170</f>
         <v>31585</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
         <v>31707</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -3133,23 +3134,23 @@
       <c r="D78" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="10">
         <f>A78-A76</f>
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
         <f>A78+170</f>
         <v>31877</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="12"/>
-    </row>
-    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
         <v>32022</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -3158,23 +3159,23 @@
       <c r="D80" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="10">
         <f>A80-A78</f>
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="11">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
         <f>A80+170</f>
         <v>32192</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="12"/>
-    </row>
-    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="11">
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
         <v>32367</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -3186,13 +3187,13 @@
       <c r="D82" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="10">
         <f>A82-A80</f>
         <v>345</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
         <v>32982</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -3204,13 +3205,13 @@
       <c r="D83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="9">
         <f>A83-A82</f>
         <v>615</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
         <v>33676</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -3219,23 +3220,23 @@
       <c r="D84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="9">
         <f>A84-A83</f>
         <v>694</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="11">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
         <f>A84+170</f>
         <v>33846</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="12"/>
-    </row>
-    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="11">
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
         <v>34008</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3244,23 +3245,23 @@
       <c r="D86" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="10">
         <f>A86-A84</f>
         <v>332</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
         <f>A86+170</f>
         <v>34178</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E87" s="12"/>
-    </row>
-    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="11">
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
         <v>34314</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -3272,13 +3273,13 @@
       <c r="D88" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="10">
         <f>A88-A86</f>
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="11">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
         <v>35357</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -3290,13 +3291,13 @@
       <c r="D89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="9">
         <f>A89-A88</f>
         <v>1043</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
         <v>36284</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3305,13 +3306,13 @@
       <c r="D90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="9">
         <f>A90-A89</f>
         <v>927</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
         <v>37238</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -3320,13 +3321,13 @@
       <c r="D91" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="9">
         <f>A91-A90</f>
         <v>954</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="11">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
         <v>38192</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -3335,23 +3336,23 @@
       <c r="D92" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="9">
         <f>A92-A91</f>
         <v>954</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="11">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
         <f>A92+170</f>
         <v>38362</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="12"/>
-    </row>
-    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="11">
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
         <f>A92+170</f>
         <v>38362</v>
       </c>
@@ -3364,13 +3365,13 @@
       <c r="D94" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="9">
         <f>A94-A92</f>
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="11">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
         <v>39396</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -3379,23 +3380,23 @@
       <c r="D95" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="10">
         <f>A95-A94</f>
         <v>1034</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="11">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
         <f>A95+170</f>
         <v>39566</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E96" s="12"/>
-    </row>
-    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="11">
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
         <v>39704</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -3407,13 +3408,13 @@
       <c r="D97" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="10">
         <f>A97-A95</f>
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="11">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
         <v>41067</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -3425,13 +3426,13 @@
       <c r="D98" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="9">
         <f>A98-A97</f>
         <v>1363</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="11">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
         <v>42216</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -3443,13 +3444,13 @@
       <c r="D99" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="9">
         <f>A99-A98</f>
         <v>1149</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="11">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
         <v>43144</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -3461,13 +3462,13 @@
       <c r="D100" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="9">
         <f>A100-A99</f>
         <v>928</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="11">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
         <v>44101</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -3479,13 +3480,13 @@
       <c r="D101" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="9">
         <f>A101-A100</f>
         <v>957</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="11">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
         <v>45026</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -3494,23 +3495,23 @@
       <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="9">
         <f>A102-A101</f>
         <v>925</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="11">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
         <f>A102+170</f>
         <v>45196</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E103" s="12"/>
-    </row>
-    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="11">
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
         <v>45367</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -3519,23 +3520,23 @@
       <c r="D104" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="10">
         <f>A104-A102</f>
         <v>341</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="11">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
         <f>A104+170</f>
         <v>45537</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="12"/>
-    </row>
-    <row r="106" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="11">
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
         <v>45647</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -3547,13 +3548,13 @@
       <c r="D106" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="10">
         <f>A106-A104</f>
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="11">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
         <v>46996</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -3565,13 +3566,13 @@
       <c r="D107" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="11">
-        <f>A107-A106</f>
+      <c r="E107" s="9">
+        <f t="shared" ref="E107:E124" si="3">A107-A106</f>
         <v>1349</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="11">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="9">
         <v>47918</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -3583,13 +3584,13 @@
       <c r="D108" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E108" s="11">
-        <f>A108-A107</f>
+      <c r="E108" s="9">
+        <f t="shared" si="3"/>
         <v>922</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="11">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
         <v>48846</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -3601,13 +3602,13 @@
       <c r="D109" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E109" s="11">
-        <f>A109-A108</f>
+      <c r="E109" s="9">
+        <f t="shared" si="3"/>
         <v>928</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="11">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
         <v>49837</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -3619,13 +3620,13 @@
       <c r="D110" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E110" s="11">
-        <f>A110-A109</f>
+      <c r="E110" s="9">
+        <f t="shared" si="3"/>
         <v>991</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="11">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
         <v>50759</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -3637,13 +3638,13 @@
       <c r="D111" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="11">
-        <f>A111-A110</f>
+      <c r="E111" s="9">
+        <f t="shared" si="3"/>
         <v>922</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="11">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="9">
         <v>51727</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -3655,13 +3656,13 @@
       <c r="D112" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="11">
-        <f>A112-A111</f>
+      <c r="E112" s="9">
+        <f t="shared" si="3"/>
         <v>968</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="11">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
         <v>52678</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -3673,13 +3674,13 @@
       <c r="D113" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E113" s="11">
-        <f>A113-A112</f>
+      <c r="E113" s="9">
+        <f t="shared" si="3"/>
         <v>951</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="11">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="9">
         <v>53696</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -3691,13 +3692,13 @@
       <c r="D114" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="11">
-        <f>A114-A113</f>
+      <c r="E114" s="9">
+        <f t="shared" si="3"/>
         <v>1018</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="11">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
         <v>54664</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -3709,13 +3710,13 @@
       <c r="D115" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E115" s="11">
-        <f>A115-A114</f>
+      <c r="E115" s="9">
+        <f t="shared" si="3"/>
         <v>968</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="11">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
         <v>55664</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -3727,13 +3728,13 @@
       <c r="D116" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="11">
-        <f>A116-A115</f>
+      <c r="E116" s="9">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="11">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
         <v>56640</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -3745,13 +3746,13 @@
       <c r="D117" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="11">
-        <f>A117-A116</f>
+      <c r="E117" s="9">
+        <f t="shared" si="3"/>
         <v>976</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="11">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
         <v>57607</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -3763,13 +3764,13 @@
       <c r="D118" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="11">
-        <f>A118-A117</f>
+      <c r="E118" s="9">
+        <f t="shared" si="3"/>
         <v>967</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="11">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
         <v>58627</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -3781,13 +3782,13 @@
       <c r="D119" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E119" s="11">
-        <f>A119-A118</f>
+      <c r="E119" s="9">
+        <f t="shared" si="3"/>
         <v>1020</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="11">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
         <v>59648</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -3799,13 +3800,13 @@
       <c r="D120" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="11">
-        <f>A120-A119</f>
+      <c r="E120" s="9">
+        <f t="shared" si="3"/>
         <v>1021</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="11">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
         <v>60567</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -3817,13 +3818,13 @@
       <c r="D121" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="11">
-        <f>A121-A120</f>
+      <c r="E121" s="9">
+        <f t="shared" si="3"/>
         <v>919</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="11">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
         <v>62426</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -3835,13 +3836,13 @@
       <c r="D122" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="11">
-        <f>A122-A121</f>
+      <c r="E122" s="9">
+        <f t="shared" si="3"/>
         <v>1859</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="11">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
         <v>63228</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -3850,13 +3851,13 @@
       <c r="D123" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E123" s="11">
-        <f>A123-A122</f>
+      <c r="E123" s="9">
+        <f t="shared" si="3"/>
         <v>802</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="11">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
         <v>63708</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -3865,23 +3866,23 @@
       <c r="D124" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="11">
-        <f>A124-A123</f>
+      <c r="E124" s="9">
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="11">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
         <f>A124+170</f>
         <v>63878</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="12"/>
-    </row>
-    <row r="126" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="11">
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
         <v>64047</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -3890,23 +3891,23 @@
       <c r="D126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="10">
         <f>A126-A124</f>
         <v>339</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="11">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
         <f>A126+170</f>
         <v>64217</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="12"/>
-    </row>
-    <row r="128" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="11">
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
         <v>64358</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -3915,23 +3916,23 @@
       <c r="D128" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="10">
         <f>A128-A126</f>
         <v>311</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="11">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
         <f>A128+170</f>
         <v>64528</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E129" s="12"/>
-    </row>
-    <row r="130" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="11">
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="9">
         <v>64677</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -3940,13 +3941,13 @@
       <c r="D130" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="10">
         <f>A130-A128</f>
         <v>319</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="11">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="9">
         <v>65239</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -3955,13 +3956,13 @@
       <c r="D131" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="9">
         <f>A131-A130</f>
         <v>562</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="11">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
         <v>65902</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -3970,23 +3971,23 @@
       <c r="D132" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="9">
         <f>A132-A131</f>
         <v>663</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="11">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
         <f>A132+170</f>
         <v>66072</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E133" s="12"/>
-    </row>
-    <row r="134" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="11">
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
         <v>66247</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -3995,23 +3996,23 @@
       <c r="D134" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="10">
         <f>A134-A132</f>
         <v>345</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="11">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
         <f>A134+170</f>
         <v>66417</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E135" s="12"/>
-    </row>
-    <row r="136" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="11">
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
         <v>66565</v>
       </c>
       <c r="C136" s="6" t="s">
@@ -4020,13 +4021,13 @@
       <c r="D136" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E136" s="10">
         <f>A136-A134</f>
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="11">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="9">
         <v>66966</v>
       </c>
       <c r="C137" s="6" t="s">
@@ -4035,13 +4036,13 @@
       <c r="D137" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="9">
         <f>A137-A136</f>
         <v>401</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="11">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="9">
         <v>67427</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4050,13 +4051,13 @@
       <c r="D138" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="9">
         <f>A138-A137</f>
         <v>461</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="11">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="9">
         <v>67946</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -4065,23 +4066,23 @@
       <c r="D139" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="9">
         <f>A139-A138</f>
         <v>519</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="11">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="9">
         <f>A139+170</f>
         <v>68116</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E140" s="12"/>
-    </row>
-    <row r="141" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="11">
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
         <v>68237</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -4090,23 +4091,23 @@
       <c r="D141" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E141" s="10">
         <f>A141-A139</f>
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="11">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="9">
         <f>A141+170</f>
         <v>68407</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E142" s="12"/>
-    </row>
-    <row r="143" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="11">
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="9">
         <v>68552</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -4115,23 +4116,23 @@
       <c r="D143" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E143" s="10">
         <f>A143-A141</f>
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="11">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="9">
         <f>A143+170</f>
         <v>68722</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E144" s="12"/>
-    </row>
-    <row r="145" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="11">
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="9">
         <v>68886</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -4140,13 +4141,13 @@
       <c r="D145" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="10">
         <f>A145-A143</f>
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="11">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="9">
         <v>69487</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -4158,13 +4159,13 @@
       <c r="D146" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="9">
         <f>A146-A145</f>
         <v>601</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="11">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
         <v>70156</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -4173,23 +4174,23 @@
       <c r="D147" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E147" s="11">
+      <c r="E147" s="9">
         <f>A147-A146</f>
         <v>669</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="11">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="9">
         <f>A147+170</f>
         <v>70326</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E148" s="12"/>
-    </row>
-    <row r="149" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="11">
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
         <v>70468</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -4198,23 +4199,23 @@
       <c r="D149" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="12">
+      <c r="E149" s="10">
         <f>A149-A147</f>
         <v>312</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="11">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
         <f>A149+170</f>
         <v>70638</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E150" s="12"/>
-    </row>
-    <row r="151" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="11">
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="9">
         <v>70788</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -4223,13 +4224,13 @@
       <c r="D151" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="10">
         <f>A151-A149</f>
         <v>320</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="11">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
         <v>71477</v>
       </c>
       <c r="B152" s="6" t="s">
@@ -4241,13 +4242,13 @@
       <c r="D152" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="11">
-        <f>A152-A151</f>
+      <c r="E152" s="9">
+        <f t="shared" ref="E152:E167" si="4">A152-A151</f>
         <v>689</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="11">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
         <v>72038</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -4259,13 +4260,13 @@
       <c r="D153" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="11">
-        <f>A153-A152</f>
+      <c r="E153" s="9">
+        <f t="shared" si="4"/>
         <v>561</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="11">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="9">
         <v>73143</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -4274,13 +4275,13 @@
       <c r="D154" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E154" s="11">
-        <f>A154-A153</f>
+      <c r="E154" s="9">
+        <f t="shared" si="4"/>
         <v>1105</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="11">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
         <v>74223</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -4289,13 +4290,13 @@
       <c r="D155" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E155" s="11">
-        <f>A155-A154</f>
+      <c r="E155" s="9">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="11">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
         <v>75175</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -4304,13 +4305,13 @@
       <c r="D156" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E156" s="11">
-        <f>A156-A155</f>
+      <c r="E156" s="9">
+        <f t="shared" si="4"/>
         <v>952</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="11">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
         <v>76125</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -4319,13 +4320,13 @@
       <c r="D157" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E157" s="11">
-        <f>A157-A156</f>
+      <c r="E157" s="9">
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="11">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="9">
         <v>77038</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -4334,13 +4335,13 @@
       <c r="D158" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E158" s="11">
-        <f>A158-A157</f>
+      <c r="E158" s="9">
+        <f t="shared" si="4"/>
         <v>913</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="11">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="9">
         <v>78055</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -4349,13 +4350,13 @@
       <c r="D159" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E159" s="11">
-        <f>A159-A158</f>
+      <c r="E159" s="9">
+        <f t="shared" si="4"/>
         <v>1017</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="11">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="9">
         <v>78943</v>
       </c>
       <c r="C160" s="6" t="s">
@@ -4364,13 +4365,13 @@
       <c r="D160" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E160" s="11">
-        <f>A160-A159</f>
+      <c r="E160" s="9">
+        <f t="shared" si="4"/>
         <v>888</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="11">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="9">
         <v>79377</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -4379,13 +4380,13 @@
       <c r="D161" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="11">
-        <f>A161-A160</f>
+      <c r="E161" s="9">
+        <f t="shared" si="4"/>
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="11">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="9">
         <v>79818</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -4394,13 +4395,13 @@
       <c r="D162" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="11">
-        <f>A162-A161</f>
+      <c r="E162" s="9">
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="11">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="9">
         <v>80305</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -4412,13 +4413,13 @@
       <c r="D163" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="11">
-        <f>A163-A162</f>
+      <c r="E163" s="9">
+        <f t="shared" si="4"/>
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="11">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="9">
         <v>80976</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -4430,13 +4431,13 @@
       <c r="D164" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E164" s="11">
-        <f>A164-A163</f>
+      <c r="E164" s="9">
+        <f t="shared" si="4"/>
         <v>671</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="11">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="9">
         <v>81628</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -4448,13 +4449,13 @@
       <c r="D165" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E165" s="11">
-        <f>A165-A164</f>
+      <c r="E165" s="9">
+        <f t="shared" si="4"/>
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="11">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="9">
         <v>82615</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -4466,13 +4467,13 @@
       <c r="D166" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E166" s="11">
-        <f>A166-A165</f>
+      <c r="E166" s="9">
+        <f t="shared" si="4"/>
         <v>987</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="11">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="9">
         <v>83584</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -4481,23 +4482,23 @@
       <c r="D167" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="11">
-        <f>A167-A166</f>
+      <c r="E167" s="9">
+        <f t="shared" si="4"/>
         <v>969</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="11">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="9">
         <f>A167+170</f>
         <v>83754</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E168" s="12"/>
-    </row>
-    <row r="169" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="11">
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="9">
         <v>83774</v>
       </c>
       <c r="B169" s="6" t="s">
@@ -4506,23 +4507,23 @@
       <c r="D169" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E169" s="12">
+      <c r="E169" s="10">
         <f>A169-A167</f>
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="11">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="9">
         <f>A169+170</f>
         <v>83944</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E170" s="12"/>
-    </row>
-    <row r="171" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="11">
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="9">
         <v>83893</v>
       </c>
       <c r="B171" s="6" t="s">
@@ -4534,13 +4535,13 @@
       <c r="D171" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E171" s="12">
+      <c r="E171" s="10">
         <f>A171-A169</f>
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="11">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="9">
         <v>84469</v>
       </c>
       <c r="B172" s="6" t="s">
@@ -4549,23 +4550,23 @@
       <c r="D172" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E172" s="11">
+      <c r="E172" s="9">
         <f>A172-A171</f>
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="11">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
         <f>A174+170</f>
         <v>84886</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="12"/>
-    </row>
-    <row r="174" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="11">
+      <c r="E173" s="10"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="9">
         <v>84716</v>
       </c>
       <c r="B174" s="6" t="s">
@@ -4577,13 +4578,13 @@
       <c r="D174" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="10">
         <f>A174-A172</f>
         <v>247</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="11">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
         <v>85126</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -4592,23 +4593,23 @@
       <c r="D175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E175" s="11">
+      <c r="E175" s="9">
         <f>A175-A174</f>
         <v>410</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="11">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="9">
         <f>A177+170</f>
         <v>85618</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E176" s="12"/>
-    </row>
-    <row r="177" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="11">
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
         <v>85448</v>
       </c>
       <c r="B177" s="6" t="s">
@@ -4620,13 +4621,13 @@
       <c r="D177" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="10">
         <f>A177-A175</f>
         <v>322</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="11">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="9">
         <v>86008</v>
       </c>
       <c r="B178" s="6" t="s">
@@ -4638,13 +4639,13 @@
       <c r="D178" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E178" s="11">
+      <c r="E178" s="9">
         <f>A178-A177</f>
         <v>560</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="11">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="9">
         <v>86472</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -4653,23 +4654,23 @@
       <c r="D179" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E179" s="11">
+      <c r="E179" s="9">
         <f>A179-A178</f>
         <v>464</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="11">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="9">
         <f>A179+170</f>
         <v>86642</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E180" s="12"/>
-    </row>
-    <row r="181" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="11">
+      <c r="E180" s="10"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="9">
         <v>86808</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -4678,23 +4679,23 @@
       <c r="D181" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E181" s="12">
+      <c r="E181" s="10">
         <f>A181-A179</f>
         <v>336</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="11">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="9">
         <f>A181+170</f>
         <v>86978</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E182" s="12"/>
-    </row>
-    <row r="183" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="11">
+      <c r="E182" s="10"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
         <v>87063</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -4703,23 +4704,23 @@
       <c r="D183" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E183" s="12">
+      <c r="E183" s="10">
         <f>A183-A181</f>
         <v>255</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="11">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="9">
         <f>A183+170</f>
         <v>87233</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E184" s="12"/>
-    </row>
-    <row r="185" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="11">
+      <c r="E184" s="10"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
         <v>87425</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -4731,13 +4732,13 @@
       <c r="D185" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E185" s="12">
+      <c r="E185" s="10">
         <f>A185-A183</f>
         <v>362</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="11">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="9">
         <v>87907</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -4749,13 +4750,13 @@
       <c r="D186" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E186" s="11">
+      <c r="E186" s="9">
         <f>A186-A185</f>
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="11">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="9">
         <v>88336</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -4764,23 +4765,23 @@
       <c r="D187" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E187" s="11">
+      <c r="E187" s="9">
         <f>A187-A186</f>
         <v>429</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="11">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="9">
         <f>A187+170</f>
         <v>88506</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E188" s="12"/>
-    </row>
-    <row r="189" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="11">
+      <c r="E188" s="10"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="9">
         <v>88664</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -4789,23 +4790,23 @@
       <c r="D189" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E189" s="12">
+      <c r="E189" s="10">
         <f>A189-A187</f>
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="11">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="9">
         <f>A189+170</f>
         <v>88834</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E190" s="12"/>
-    </row>
-    <row r="191" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="11">
+      <c r="E190" s="10"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="9">
         <v>88975</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -4814,23 +4815,23 @@
       <c r="D191" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E191" s="12">
+      <c r="E191" s="10">
         <f>A191-A189</f>
         <v>311</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="11">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="9">
         <f>A191+170</f>
         <v>89145</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E192" s="12"/>
-    </row>
-    <row r="193" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="11">
+      <c r="E192" s="10"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="9">
         <v>89296</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -4842,13 +4843,13 @@
       <c r="D193" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E193" s="12">
+      <c r="E193" s="10">
         <f>A193-A191</f>
         <v>321</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="11">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="9">
         <v>89768</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -4860,13 +4861,13 @@
       <c r="D194" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E194" s="11">
+      <c r="E194" s="9">
         <f>A194-A193</f>
         <v>472</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="11">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="9">
         <v>90197</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -4875,23 +4876,23 @@
       <c r="D195" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E195" s="11">
+      <c r="E195" s="9">
         <f>A195-A194</f>
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="11">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="9">
         <f>A199+170</f>
         <v>90994</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E196" s="12"/>
-    </row>
-    <row r="197" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="11">
+      <c r="E196" s="10"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="9">
         <v>90519</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -4900,23 +4901,23 @@
       <c r="D197" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E197" s="12">
+      <c r="E197" s="10">
         <f>A197-A195</f>
         <v>322</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="11">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="9">
         <f>A197+170</f>
         <v>90689</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E198" s="12"/>
-    </row>
-    <row r="199" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="11">
+      <c r="E198" s="10"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="9">
         <v>90824</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -4928,13 +4929,13 @@
       <c r="D199" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E199" s="12">
+      <c r="E199" s="10">
         <f>A199-A197</f>
         <v>305</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="11">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="9">
         <v>91198</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -4946,13 +4947,13 @@
       <c r="D200" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E200" s="11">
+      <c r="E200" s="9">
         <f>A200-A199</f>
         <v>374</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="11">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="9">
         <v>91647</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -4964,13 +4965,13 @@
       <c r="D201" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E201" s="11">
+      <c r="E201" s="9">
         <f>A201-A200</f>
         <v>449</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="11">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="9">
         <v>92054</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -4979,23 +4980,23 @@
       <c r="D202" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E202" s="11">
+      <c r="E202" s="9">
         <f>A202-A201</f>
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="11">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="9">
         <f>A202+170</f>
         <v>92224</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E203" s="12"/>
-    </row>
-    <row r="204" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="11">
+      <c r="E203" s="10"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="9">
         <v>92343</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -5004,23 +5005,23 @@
       <c r="D204" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E204" s="12">
+      <c r="E204" s="10">
         <f>A204-A202</f>
         <v>289</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="11">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="9">
         <f>A204+170</f>
         <v>92513</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E205" s="12"/>
-    </row>
-    <row r="206" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="11">
+      <c r="E205" s="10"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="9">
         <v>92637</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -5029,23 +5030,23 @@
       <c r="D206" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="10">
         <f>A206-A204</f>
         <v>294</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="11">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="9">
         <f>A206+170</f>
         <v>92807</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E207" s="12"/>
-    </row>
-    <row r="208" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="11">
+      <c r="E207" s="10"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="9">
         <v>92983</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -5057,13 +5058,13 @@
       <c r="D208" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E208" s="12">
+      <c r="E208" s="10">
         <f>A208-A206</f>
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="11">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="9">
         <v>93465</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -5075,13 +5076,13 @@
       <c r="D209" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E209" s="11">
+      <c r="E209" s="9">
         <f>A209-A208</f>
         <v>482</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="11">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="9">
         <v>94133</v>
       </c>
       <c r="B210" s="6" t="s">
@@ -5090,23 +5091,23 @@
       <c r="D210" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E210" s="11">
+      <c r="E210" s="9">
         <f>A210-A209</f>
         <v>668</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="11">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="9">
         <f>A210+170</f>
         <v>94303</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E211" s="12"/>
-    </row>
-    <row r="212" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="11">
+      <c r="E211" s="10"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="9">
         <v>94437</v>
       </c>
       <c r="B212" s="6" t="s">
@@ -5115,23 +5116,23 @@
       <c r="D212" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E212" s="12">
+      <c r="E212" s="10">
         <f>A212-A210</f>
         <v>304</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="11">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="9">
         <f>A212+170</f>
         <v>94607</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="12"/>
-    </row>
-    <row r="214" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="11">
+      <c r="E213" s="10"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="9">
         <v>94768</v>
       </c>
       <c r="B214" s="6" t="s">
@@ -5143,13 +5144,13 @@
       <c r="D214" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E214" s="12">
+      <c r="E214" s="10">
         <f>A214-A212</f>
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="11">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="9">
         <v>95286</v>
       </c>
       <c r="B215" s="6" t="s">
@@ -5161,13 +5162,13 @@
       <c r="D215" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E215" s="11">
+      <c r="E215" s="9">
         <f>A215-A214</f>
         <v>518</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="11">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="9">
         <v>95706</v>
       </c>
       <c r="B216" s="6" t="s">
@@ -5176,23 +5177,23 @@
       <c r="D216" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E216" s="11">
+      <c r="E216" s="9">
         <f>A216-A215</f>
         <v>420</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="11">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="9">
         <f>A222+170</f>
         <v>96746</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E217" s="12"/>
-    </row>
-    <row r="218" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="11">
+      <c r="E217" s="10"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="9">
         <v>96007</v>
       </c>
       <c r="B218" s="6" t="s">
@@ -5201,23 +5202,23 @@
       <c r="D218" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E218" s="12">
+      <c r="E218" s="10">
         <f>A218-A216</f>
         <v>301</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="11">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="9">
         <f>A218+170</f>
         <v>96177</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E219" s="12"/>
-    </row>
-    <row r="220" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="11">
+      <c r="E219" s="10"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="9">
         <v>96267</v>
       </c>
       <c r="B220" s="6" t="s">
@@ -5226,23 +5227,23 @@
       <c r="D220" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E220" s="12">
+      <c r="E220" s="10">
         <f>A220-A218</f>
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="11">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="9">
         <f>A220+170</f>
         <v>96437</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E221" s="12"/>
-    </row>
-    <row r="222" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="11">
+      <c r="E221" s="10"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="9">
         <v>96576</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -5254,13 +5255,13 @@
       <c r="D222" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E222" s="12">
+      <c r="E222" s="10">
         <f>A222-A220</f>
         <v>309</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="11">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="9">
         <v>97096</v>
       </c>
       <c r="B223" s="6" t="s">
@@ -5272,13 +5273,13 @@
       <c r="D223" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E223" s="11">
+      <c r="E223" s="9">
         <f>A223-A222</f>
         <v>520</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="11">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="9">
         <v>97549</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -5287,23 +5288,23 @@
       <c r="D224" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E224" s="11">
+      <c r="E224" s="9">
         <f>A224-A223</f>
         <v>453</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="11">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="9">
         <f>A224+170</f>
         <v>97719</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E225" s="12"/>
-    </row>
-    <row r="226" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="11">
+      <c r="E225" s="10"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="9">
         <v>97828</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -5312,23 +5313,23 @@
       <c r="D226" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E226" s="12">
+      <c r="E226" s="10">
         <f>A226-A224</f>
         <v>279</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="11">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="9">
         <f>A226+170</f>
         <v>97998</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E227" s="12"/>
-    </row>
-    <row r="228" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="11">
+      <c r="E227" s="10"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="9">
         <v>98096</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -5340,13 +5341,13 @@
       <c r="D228" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E228" s="12">
+      <c r="E228" s="10">
         <f>A228-A226</f>
         <v>268</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="11">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="9">
         <v>98989</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -5358,13 +5359,13 @@
       <c r="D229" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E229" s="11">
-        <f>A229-A228</f>
+      <c r="E229" s="9">
+        <f t="shared" ref="E229:E235" si="5">A229-A228</f>
         <v>893</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="11">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="9">
         <v>99987</v>
       </c>
       <c r="B230" s="6" t="s">
@@ -5373,13 +5374,13 @@
       <c r="D230" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="11">
-        <f>A230-A229</f>
+      <c r="E230" s="9">
+        <f t="shared" si="5"/>
         <v>998</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="11">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="9">
         <v>101436</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -5388,13 +5389,13 @@
       <c r="D231" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E231" s="11">
-        <f>A231-A230</f>
+      <c r="E231" s="9">
+        <f t="shared" si="5"/>
         <v>1449</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="11">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="9">
         <v>102637</v>
       </c>
       <c r="B232" s="6" t="s">
@@ -5403,13 +5404,13 @@
       <c r="D232" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E232" s="11">
-        <f>A232-A231</f>
+      <c r="E232" s="9">
+        <f t="shared" si="5"/>
         <v>1201</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="11">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="9">
         <v>104062</v>
       </c>
       <c r="C233" s="6" t="s">
@@ -5418,13 +5419,13 @@
       <c r="D233" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E233" s="11">
-        <f>A233-A232</f>
+      <c r="E233" s="9">
+        <f t="shared" si="5"/>
         <v>1425</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="11">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="9">
         <v>105064</v>
       </c>
       <c r="B234" s="6" t="s">
@@ -5433,13 +5434,13 @@
       <c r="D234" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E234" s="11">
-        <f>A234-A233</f>
+      <c r="E234" s="9">
+        <f t="shared" si="5"/>
         <v>1002</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="11">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="9">
         <v>105476</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -5448,23 +5449,23 @@
       <c r="D235" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E235" s="11">
-        <f>A235-A234</f>
+      <c r="E235" s="9">
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="11">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="9">
         <f>A235+170</f>
         <v>105646</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E236" s="12"/>
-    </row>
-    <row r="237" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="11">
+      <c r="E236" s="10"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="9">
         <v>105823</v>
       </c>
       <c r="B237" s="6" t="s">
@@ -5476,13 +5477,13 @@
       <c r="D237" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E237" s="12">
+      <c r="E237" s="10">
         <f>A237-A235</f>
         <v>347</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="11">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="9">
         <f>A237+170</f>
         <v>105993</v>
       </c>
@@ -5492,23 +5493,23 @@
       <c r="D238" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E238" s="11">
+      <c r="E238" s="9">
         <f>A238-A237</f>
         <v>170</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="11">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="9">
         <f>A238+170</f>
         <v>106163</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E239" s="12"/>
-    </row>
-    <row r="240" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="11">
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="9">
         <v>107024</v>
       </c>
       <c r="B240" s="6" t="s">
@@ -5517,23 +5518,23 @@
       <c r="D240" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E240" s="12">
+      <c r="E240" s="10">
         <f>A240-A238</f>
         <v>1031</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="11">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="9">
         <f>A240+170</f>
         <v>107194</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E241" s="12"/>
-    </row>
-    <row r="242" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="11">
+      <c r="E241" s="10"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="9">
         <v>107307</v>
       </c>
       <c r="B242" s="6" t="s">
@@ -5545,13 +5546,13 @@
       <c r="D242" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E242" s="12">
+      <c r="E242" s="10">
         <f>A242-A240</f>
         <v>283</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="11">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="9">
         <v>108757</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -5563,13 +5564,13 @@
       <c r="D243" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E243" s="11">
+      <c r="E243" s="9">
         <f>A243-A242</f>
         <v>1450</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="11">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="9">
         <v>109147</v>
       </c>
       <c r="B244" s="6" t="s">
@@ -5581,13 +5582,13 @@
       <c r="D244" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E244" s="11">
+      <c r="E244" s="9">
         <f>A244-A243</f>
         <v>390</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="11">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="9">
         <v>109687</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -5596,13 +5597,13 @@
       <c r="D245" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E245" s="11">
+      <c r="E245" s="9">
         <f>A245-A244</f>
         <v>540</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="11">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="9">
         <f>A245+4000</f>
         <v>113687</v>
       </c>
@@ -5617,7 +5618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D99CBED-79B3-4DF0-854D-350F5BCAFEC9}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
@@ -7519,4 +7520,1309 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16817AE7-D1CB-468E-AAFA-30640801A976}">
+  <dimension ref="A1:F175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>300000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5">
+        <f>A3-A2</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E5" si="0">A4-A3</f>
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="5">
+        <f t="shared" ref="E5:E68" si="1">A6-A5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="6"/>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="6"/>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="E53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="E55" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="E56" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="E57" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="E58" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="E59" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="E60" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="E61" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="E62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="E63" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="E64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="E65" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="E66" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="E67" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="E68" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="E69" s="5">
+        <f t="shared" ref="E69:E132" si="2">A69-A68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="E70" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="E71" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="E72" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="E73" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="E74" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="E75" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="E76" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="E77" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="E78" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="E79" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="E80" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="E81" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="E82" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="E83" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="E84" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="E85" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="E86" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="E87" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="E88" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="E89" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="E90" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="E91" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="E92" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="E93" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="E94" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="E95" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="E96" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="E97" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="E98" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="E99" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="E100" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="E101" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="E102" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="E103" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="E104" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="E105" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="E106" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="E107" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E108" s="5">
+        <f>A3-A107</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E109" s="5">
+        <f>A109-A3</f>
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E110" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E111" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E123" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E124" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E127" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E128" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E129" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" s="5">
+        <f t="shared" ref="E133:E175" si="3">A133-A132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E136" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E139" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E143" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E144" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E145" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E146" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E147" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E148" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E149" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E150" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E151" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E152" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E153" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E154" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E156" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E157" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E158" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E160" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E161" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E165" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E166" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E167" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E168" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E170" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E171" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E172" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E173" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E174" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E175" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>